--- a/Base/Backlog_31.xlsx
+++ b/Base/Backlog_31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5332BF-677C-49BE-8C51-898BA9A79CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38EBF9B-6458-4160-BD7F-5F5B51591064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="273" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="273" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="28">
   <si>
     <t>Backlog</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Jose Acevedo</t>
+  </si>
+  <si>
+    <t>Resolvido</t>
   </si>
 </sst>
 </file>
@@ -252,15 +255,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -293,6 +287,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -612,7 +615,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:K25"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -667,842 +670,842 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D2" s="10">
-        <v>31</v>
-      </c>
-      <c r="E2" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F2" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G2" s="10">
+      <c r="C2" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D2" s="22">
+        <v>31</v>
+      </c>
+      <c r="E2" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F2" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G2" s="22">
         <v>341994</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="24">
         <v>45839</v>
       </c>
-      <c r="I2" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D3" s="10">
-        <v>31</v>
-      </c>
-      <c r="E3" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F3" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="C3" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D3" s="22">
+        <v>31</v>
+      </c>
+      <c r="E3" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F3" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G3" s="22">
         <v>342679</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="24">
         <v>45870</v>
       </c>
-      <c r="I3" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D4" s="22">
+        <v>31</v>
+      </c>
+      <c r="E4" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F4" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G4" s="22">
+        <v>340432</v>
+      </c>
+      <c r="H4" s="24">
+        <v>45839</v>
+      </c>
+      <c r="I4" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D4" s="10">
-        <v>31</v>
-      </c>
-      <c r="E4" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F4" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G4" s="10">
-        <v>340432</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="K4" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D5" s="22">
+        <v>31</v>
+      </c>
+      <c r="E5" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F5" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G5" s="22">
+        <v>341641</v>
+      </c>
+      <c r="H5" s="24">
         <v>45839</v>
       </c>
-      <c r="I4" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J4" s="10" t="s">
+      <c r="I5" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="K5" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D5" s="10">
-        <v>31</v>
-      </c>
-      <c r="E5" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F5" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G5" s="10">
-        <v>341641</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="C6" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D6" s="22">
+        <v>31</v>
+      </c>
+      <c r="E6" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F6" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G6" s="22">
+        <v>342151</v>
+      </c>
+      <c r="H6" s="24">
         <v>45839</v>
       </c>
-      <c r="I5" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J5" s="10" t="s">
+      <c r="I6" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="K6" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D6" s="10">
-        <v>31</v>
-      </c>
-      <c r="E6" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F6" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G6" s="10">
-        <v>342151</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="C7" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D7" s="22">
+        <v>31</v>
+      </c>
+      <c r="E7" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F7" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G7" s="22">
+        <v>342730</v>
+      </c>
+      <c r="H7" s="24">
+        <v>45870</v>
+      </c>
+      <c r="I7" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D8" s="22">
+        <v>31</v>
+      </c>
+      <c r="E8" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F8" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G8" s="22">
+        <v>342433</v>
+      </c>
+      <c r="H8" s="24">
         <v>45839</v>
       </c>
-      <c r="I6" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J6" s="10" t="s">
+      <c r="I8" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D7" s="10">
-        <v>31</v>
-      </c>
-      <c r="E7" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F7" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G7" s="10">
-        <v>342730</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="K8" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D9" s="22">
+        <v>31</v>
+      </c>
+      <c r="E9" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F9" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G9" s="22">
+        <v>341695</v>
+      </c>
+      <c r="H9" s="24">
+        <v>45839</v>
+      </c>
+      <c r="I9" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D10" s="22">
+        <v>31</v>
+      </c>
+      <c r="E10" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F10" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G10" s="22">
+        <v>342399</v>
+      </c>
+      <c r="H10" s="24">
+        <v>45839</v>
+      </c>
+      <c r="I10" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D11" s="22">
+        <v>31</v>
+      </c>
+      <c r="E11" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F11" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G11" s="22">
+        <v>339469</v>
+      </c>
+      <c r="H11" s="24">
+        <v>45809</v>
+      </c>
+      <c r="I11" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D12" s="22">
+        <v>31</v>
+      </c>
+      <c r="E12" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F12" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G12" s="22">
+        <v>341470</v>
+      </c>
+      <c r="H12" s="24">
+        <v>45839</v>
+      </c>
+      <c r="I12" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D13" s="22">
+        <v>31</v>
+      </c>
+      <c r="E13" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F13" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G13" s="22">
+        <v>339644</v>
+      </c>
+      <c r="H13" s="24">
+        <v>45839</v>
+      </c>
+      <c r="I13" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D14" s="22">
+        <v>31</v>
+      </c>
+      <c r="E14" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F14" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G14" s="22">
+        <v>342619</v>
+      </c>
+      <c r="H14" s="24">
         <v>45870</v>
       </c>
-      <c r="I7" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="I14" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D8" s="10">
-        <v>31</v>
-      </c>
-      <c r="E8" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F8" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G8" s="10">
-        <v>342433</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="K14" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D15" s="22">
+        <v>31</v>
+      </c>
+      <c r="E15" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F15" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G15" s="22">
+        <v>342008</v>
+      </c>
+      <c r="H15" s="24">
         <v>45839</v>
       </c>
-      <c r="I8" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J8" s="10" t="s">
+      <c r="I15" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D16" s="22">
+        <v>31</v>
+      </c>
+      <c r="E16" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F16" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G16" s="22">
+        <v>342286</v>
+      </c>
+      <c r="H16" s="24">
+        <v>45839</v>
+      </c>
+      <c r="I16" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D17" s="22">
+        <v>31</v>
+      </c>
+      <c r="E17" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F17" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G17" s="22">
+        <v>341731</v>
+      </c>
+      <c r="H17" s="24">
+        <v>45839</v>
+      </c>
+      <c r="I17" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D9" s="10">
-        <v>31</v>
-      </c>
-      <c r="E9" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F9" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G9" s="10">
-        <v>341695</v>
-      </c>
-      <c r="H9" s="12">
+      <c r="K17" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D18" s="22">
+        <v>31</v>
+      </c>
+      <c r="E18" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F18" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G18" s="22">
+        <v>342186</v>
+      </c>
+      <c r="H18" s="24">
         <v>45839</v>
       </c>
-      <c r="I9" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J9" s="10" t="s">
+      <c r="I18" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D19" s="22">
+        <v>31</v>
+      </c>
+      <c r="E19" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F19" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G19" s="22">
+        <v>342059</v>
+      </c>
+      <c r="H19" s="24">
+        <v>45839</v>
+      </c>
+      <c r="I19" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D20" s="22">
+        <v>31</v>
+      </c>
+      <c r="E20" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F20" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G20" s="22">
+        <v>342135</v>
+      </c>
+      <c r="H20" s="24">
+        <v>45839</v>
+      </c>
+      <c r="I20" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J20" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D10" s="10">
-        <v>31</v>
-      </c>
-      <c r="E10" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F10" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G10" s="10">
-        <v>342399</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="K20" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D21" s="22">
+        <v>31</v>
+      </c>
+      <c r="E21" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F21" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G21" s="22">
+        <v>342578</v>
+      </c>
+      <c r="H21" s="24">
         <v>45839</v>
       </c>
-      <c r="I10" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J10" s="10" t="s">
+      <c r="I21" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D22" s="22">
+        <v>31</v>
+      </c>
+      <c r="E22" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F22" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G22" s="22">
+        <v>342502</v>
+      </c>
+      <c r="H22" s="24">
+        <v>45870</v>
+      </c>
+      <c r="I22" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J22" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D11" s="10">
-        <v>31</v>
-      </c>
-      <c r="E11" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F11" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G11" s="10">
-        <v>339469</v>
-      </c>
-      <c r="H11" s="12">
-        <v>45809</v>
-      </c>
-      <c r="I11" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J11" s="10" t="s">
+      <c r="K22" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D23" s="22">
+        <v>31</v>
+      </c>
+      <c r="E23" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F23" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G23" s="22">
+        <v>342006</v>
+      </c>
+      <c r="H23" s="24">
+        <v>45839</v>
+      </c>
+      <c r="I23" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J23" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D12" s="10">
-        <v>31</v>
-      </c>
-      <c r="E12" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F12" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G12" s="10">
-        <v>341470</v>
-      </c>
-      <c r="H12" s="12">
+      <c r="K23" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D24" s="22">
+        <v>31</v>
+      </c>
+      <c r="E24" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F24" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G24" s="22">
+        <v>340589</v>
+      </c>
+      <c r="H24" s="24">
         <v>45839</v>
       </c>
-      <c r="I12" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J12" s="10" t="s">
+      <c r="I24" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J24" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D13" s="10">
-        <v>31</v>
-      </c>
-      <c r="E13" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F13" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G13" s="10">
-        <v>339644</v>
-      </c>
-      <c r="H13" s="12">
-        <v>45839</v>
-      </c>
-      <c r="I13" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J13" s="10" t="s">
+      <c r="K24" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D25" s="22">
+        <v>31</v>
+      </c>
+      <c r="E25" s="23">
+        <v>45873</v>
+      </c>
+      <c r="F25" s="23">
+        <v>45877</v>
+      </c>
+      <c r="G25" s="22">
+        <v>342670</v>
+      </c>
+      <c r="H25" s="24">
+        <v>45870</v>
+      </c>
+      <c r="I25" s="23">
+        <v>45873</v>
+      </c>
+      <c r="J25" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D14" s="10">
-        <v>31</v>
-      </c>
-      <c r="E14" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F14" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G14" s="10">
-        <v>342619</v>
-      </c>
-      <c r="H14" s="12">
-        <v>45870</v>
-      </c>
-      <c r="I14" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D15" s="10">
-        <v>31</v>
-      </c>
-      <c r="E15" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F15" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G15" s="10">
-        <v>342008</v>
-      </c>
-      <c r="H15" s="12">
-        <v>45839</v>
-      </c>
-      <c r="I15" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D16" s="10">
-        <v>31</v>
-      </c>
-      <c r="E16" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F16" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G16" s="10">
-        <v>342286</v>
-      </c>
-      <c r="H16" s="12">
-        <v>45839</v>
-      </c>
-      <c r="I16" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D17" s="10">
-        <v>31</v>
-      </c>
-      <c r="E17" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F17" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G17" s="10">
-        <v>341731</v>
-      </c>
-      <c r="H17" s="12">
-        <v>45839</v>
-      </c>
-      <c r="I17" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D18" s="10">
-        <v>31</v>
-      </c>
-      <c r="E18" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F18" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G18" s="10">
-        <v>342186</v>
-      </c>
-      <c r="H18" s="12">
-        <v>45839</v>
-      </c>
-      <c r="I18" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D19" s="10">
-        <v>31</v>
-      </c>
-      <c r="E19" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F19" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G19" s="10">
-        <v>342059</v>
-      </c>
-      <c r="H19" s="12">
-        <v>45839</v>
-      </c>
-      <c r="I19" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D20" s="10">
-        <v>31</v>
-      </c>
-      <c r="E20" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F20" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G20" s="10">
-        <v>342135</v>
-      </c>
-      <c r="H20" s="12">
-        <v>45839</v>
-      </c>
-      <c r="I20" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D21" s="10">
-        <v>31</v>
-      </c>
-      <c r="E21" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F21" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G21" s="10">
-        <v>342578</v>
-      </c>
-      <c r="H21" s="12">
-        <v>45839</v>
-      </c>
-      <c r="I21" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D22" s="10">
-        <v>31</v>
-      </c>
-      <c r="E22" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F22" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G22" s="10">
-        <v>342502</v>
-      </c>
-      <c r="H22" s="12">
-        <v>45870</v>
-      </c>
-      <c r="I22" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D23" s="10">
-        <v>31</v>
-      </c>
-      <c r="E23" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F23" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G23" s="10">
-        <v>342006</v>
-      </c>
-      <c r="H23" s="12">
-        <v>45839</v>
-      </c>
-      <c r="I23" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D24" s="10">
-        <v>31</v>
-      </c>
-      <c r="E24" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F24" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G24" s="10">
-        <v>340589</v>
-      </c>
-      <c r="H24" s="12">
-        <v>45839</v>
-      </c>
-      <c r="I24" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D25" s="10">
-        <v>31</v>
-      </c>
-      <c r="E25" s="11">
-        <v>45873</v>
-      </c>
-      <c r="F25" s="11">
-        <v>45877</v>
-      </c>
-      <c r="G25" s="10">
-        <v>342670</v>
-      </c>
-      <c r="H25" s="12">
-        <v>45870</v>
-      </c>
-      <c r="I25" s="11">
-        <v>45873</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="22" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1757,275 +1760,275 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="13"/>
+    <col min="1" max="1" width="6.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D2" s="21">
-        <v>31</v>
-      </c>
-      <c r="E2" s="22">
-        <v>45873</v>
-      </c>
-      <c r="F2" s="22">
-        <v>45877</v>
-      </c>
-      <c r="G2" s="21">
+      <c r="C2" s="18">
+        <v>2025</v>
+      </c>
+      <c r="D2" s="18">
+        <v>31</v>
+      </c>
+      <c r="E2" s="19">
+        <v>45873</v>
+      </c>
+      <c r="F2" s="19">
+        <v>45877</v>
+      </c>
+      <c r="G2" s="18">
         <v>341979</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="20">
         <v>45839</v>
       </c>
-      <c r="I2" s="22">
-        <v>45873</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="21" t="s">
+      <c r="I2" s="19">
+        <v>45873</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="16"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="16"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="16"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="16"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="16"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="16"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="16"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="16"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E16" s="16"/>
-      <c r="F16" s="18"/>
-      <c r="I16" s="16"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="15"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="19"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="18"/>
-      <c r="I17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="15"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="19"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="18"/>
-      <c r="I18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="15"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="19"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="I19" s="18"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="19"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="I20" s="18"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="19"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="I21" s="18"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="19"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="I22" s="18"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="19"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="I23" s="18"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="I23" s="15"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="19"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="I24" s="18"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="19"/>
-      <c r="F25" s="18"/>
+      <c r="D25" s="16"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="19"/>
-      <c r="F26" s="18"/>
+      <c r="D26" s="16"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="19"/>
-      <c r="F27" s="18"/>
+      <c r="D27" s="16"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D28" s="19"/>
-      <c r="F28" s="18"/>
+      <c r="D28" s="16"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F29" s="18"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F30" s="18"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F31" s="18"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F32" s="18"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="18"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34" s="18"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" s="18"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F36" s="18"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F37" s="18"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F38" s="18"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F39" s="18"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F40" s="18"/>
+      <c r="F40" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
